--- a/Employee_Reports21/Justin Paolo Macatangay Ilao Q0553.xlsx
+++ b/Employee_Reports21/Justin Paolo Macatangay Ilao Q0553.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1174,11 +1174,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1222,11 +1222,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1270,11 +1270,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1363,11 +1363,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1409,11 +1409,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>-322</v>
+        <v>-323</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1455,11 +1455,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1491,11 +1491,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1537,11 +1537,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1583,11 +1583,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1629,11 +1629,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1675,11 +1675,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1711,11 +1711,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1757,11 +1757,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1803,11 +1803,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
